--- a/bank/endusers/quizziz/EXG2131.scrum_in_essence_constructs.quizizz.xlsx
+++ b/bank/endusers/quizziz/EXG2131.scrum_in_essence_constructs.quizizz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apps\laragon\www\q4eef\bank\endusers\quizziz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4405322A-0D92-4F10-8756-C01EBBFC4A00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108C10D8-2BBD-4213-8477-E5DF26D6E6CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="27">
   <si>
     <t>Question Text</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>What is the construct corresponding to 10 - Retrospective</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/frederic-baucher/q4eef/main/bank/endusers/quizziz/EXG2131.scrum_in_essence_constructs.png</t>
   </si>
 </sst>
 </file>
@@ -152,71 +155,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -602,7 +541,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J3" sqref="J3:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -665,6 +604,9 @@
       <c r="I2" t="s">
         <v>12</v>
       </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="1" t="s">
@@ -688,6 +630,9 @@
       <c r="I3" t="s">
         <v>12</v>
       </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="1" t="s">
@@ -711,6 +656,9 @@
       <c r="I4" t="s">
         <v>12</v>
       </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="1" t="s">
@@ -734,6 +682,9 @@
       <c r="I5" t="s">
         <v>12</v>
       </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="1" t="s">
@@ -757,6 +708,9 @@
       <c r="I6" t="s">
         <v>12</v>
       </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="1" t="s">
@@ -780,6 +734,9 @@
       <c r="I7" t="s">
         <v>12</v>
       </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15.75">
       <c r="A8" s="1" t="s">
@@ -803,6 +760,9 @@
       <c r="I8" t="s">
         <v>12</v>
       </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="1" t="s">
@@ -826,6 +786,9 @@
       <c r="I9" t="s">
         <v>12</v>
       </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="1" t="s">
@@ -849,6 +812,9 @@
       <c r="I10" t="s">
         <v>12</v>
       </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="1" t="s">
@@ -872,30 +838,33 @@
       <c r="I11" t="s">
         <v>12</v>
       </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>LEN(C4)&gt;95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:E11">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>LEN(C3)&gt;60</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A11">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>LEN(A3)&gt;95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:E2">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>LEN(C2)&gt;60</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>LEN(A2)&gt;95</formula>
     </cfRule>
   </conditionalFormatting>

--- a/bank/endusers/quizziz/EXG2131.scrum_in_essence_constructs.quizizz.xlsx
+++ b/bank/endusers/quizziz/EXG2131.scrum_in_essence_constructs.quizizz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apps\laragon\www\q4eef\bank\endusers\quizziz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108C10D8-2BBD-4213-8477-E5DF26D6E6CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA8EA25-CCE3-4872-9A6D-5E49EB977CC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
     <t>What is the construct corresponding to 10 - Retrospective</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/frederic-baucher/q4eef/main/bank/endusers/quizziz/EXG2131.scrum_in_essence_constructs.png</t>
+    <t>https://raw.githubusercontent.com/frederic-baucher/q4eef/main/bank/pivots/EXG2131.scrum_in_essence_constructs-en.png</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J11"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
